--- a/sprints/28_07-11_08.xlsx
+++ b/sprints/28_07-11_08.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>PLANEJAMENTO 30 abr - 14 mar</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Aplicativos</t>
   </si>
   <si>
-    <t>AP2</t>
+    <t>Laravel</t>
   </si>
   <si>
     <t>GN</t>
@@ -37,7 +37,7 @@
     <t>Laís Fiori</t>
   </si>
   <si>
-    <t>Estudo e estruturação da agenda personalizada.</t>
+    <t>Backend flahcards, confgurações avançadas, avaliação de atividades, estudo e estruturação da agenda personalizada.</t>
   </si>
   <si>
     <t>Em andamento</t>
@@ -46,34 +46,43 @@
     <t>Tirar foto do grupo.</t>
   </si>
   <si>
-    <t>Nenhuma atividade relacionada ao tcc</t>
-  </si>
-  <si>
-    <t>Fazer EAP</t>
+    <t>Sprint revisonal</t>
   </si>
   <si>
     <t>Luma Ramos</t>
   </si>
   <si>
+    <t>Estudo e estruturação da agenda personalizada, confgurações avançadas</t>
+  </si>
+  <si>
     <t>Luciano Luz</t>
   </si>
   <si>
-    <t>Tradução das telas português/inglês.</t>
+    <t>Configuração de esqueci minha senha, tradução das telas português/inglês, adição de fotos de perfil.</t>
   </si>
   <si>
     <t>Pedro Pimenta</t>
   </si>
   <si>
-    <t>Login com google.</t>
+    <t>Login com google, configuração de esqueci minha senha.</t>
   </si>
   <si>
     <t>Anna Beatriz Valderrama</t>
   </si>
   <si>
-    <t>Configuração do claro e escuro das telas.</t>
+    <t>Frontend flashcards, implementação de alerts para erros e popover, relatório implementação do modo claro e escuro das telas.</t>
   </si>
   <si>
     <t>Ana Luiza Aguiar</t>
+  </si>
+  <si>
+    <t>Configuração e implementação do  modo claro e escuro das telas,  frontend configurações avançadas.</t>
+  </si>
+  <si>
+    <t>Tirar foto do grupo, fazer slides padrão da empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAP, TAP, apresentação do projeto, requisitos funcionais. </t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -255,27 +264,42 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,9 +518,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="37.0"/>
+    <col customWidth="1" min="2" max="2" width="39.25"/>
     <col customWidth="1" min="3" max="3" width="12.5"/>
-    <col customWidth="1" min="4" max="4" width="34.63"/>
+    <col customWidth="1" min="4" max="4" width="16.75"/>
     <col customWidth="1" min="6" max="6" width="16.63"/>
     <col customWidth="1" min="8" max="8" width="16.75"/>
   </cols>
@@ -543,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" ht="46.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -562,62 +586,62 @@
       <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" ht="33.75" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" ht="44.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" ht="33.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7">
+      <c r="C6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" ht="44.25" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -627,39 +651,45 @@
       <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" ht="33.75" customHeight="1">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" ht="56.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F8"/>
     <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/sprints/28_07-11_08.xlsx
+++ b/sprints/28_07-11_08.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
-    <t>PLANEJAMENTO 30 abr - 14 mar</t>
+    <t>PLANEJAMENTO 28 de julho - 11 de agosto</t>
   </si>
   <si>
     <t>Responsável</t>
@@ -40,7 +40,7 @@
     <t>Backend flahcards, confgurações avançadas, avaliação de atividades, estudo e estruturação da agenda personalizada.</t>
   </si>
   <si>
-    <t>Em andamento</t>
+    <t>Finalizado</t>
   </si>
   <si>
     <t>Tirar foto do grupo.</t>
